--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/79.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/79.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06083880959421102</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.670145928917482</v>
+        <v>-1.671012426443758</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2055534039391785</v>
+        <v>-0.2053582255681373</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3145683942613429</v>
+        <v>-0.3134917651823732</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05417141078897197</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.8116825153144</v>
+        <v>-1.811817093949271</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1911149265394873</v>
+        <v>-0.1910456696981501</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3162982412756523</v>
+        <v>-0.3148013490912954</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05377730376552298</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.991285967150415</v>
+        <v>-1.99035965689753</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.265975275948548</v>
+        <v>-0.2655376986328264</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3479533398241305</v>
+        <v>-0.3464422814676818</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05847915123291902</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.019491602794563</v>
+        <v>-2.018779359142175</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2396151777241254</v>
+        <v>-0.2394782380605723</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3521339346103051</v>
+        <v>-0.3504072356342383</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0631307184364166</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.957138409323357</v>
+        <v>-1.954582989279926</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1920845223182086</v>
+        <v>-0.1930714323072641</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3657822544111033</v>
+        <v>-0.3637108452474717</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06703047478608652</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.710410912059475</v>
+        <v>-1.707853130987361</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1679012925385448</v>
+        <v>-0.1673377936931192</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.383238126466328</v>
+        <v>-0.3809117262050455</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.07308013674980576</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.488749669302305</v>
+        <v>-1.483444437853962</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04977115748492817</v>
+        <v>-0.05044798570708747</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3665110252642656</v>
+        <v>-0.3644459121771191</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08197552829178649</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.206664980516645</v>
+        <v>-1.201424283852275</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0008821235773288099</v>
+        <v>-0.0001895551639565073</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3176345835096366</v>
+        <v>-0.3163501839066553</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08747476611866377</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.025199464060132</v>
+        <v>-1.018683811907507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1457912742219545</v>
+        <v>0.1452954581987448</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3121082023747499</v>
+        <v>-0.3100887358421211</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08089829868069084</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7955083627556467</v>
+        <v>-0.7884614791495835</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726204301445247</v>
+        <v>0.1717248132645046</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2987589462069988</v>
+        <v>-0.2970448393839023</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.05498925582083836</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5700128094189889</v>
+        <v>-0.5617822634337076</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1666391574835821</v>
+        <v>0.1650604163049175</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2514911519943391</v>
+        <v>-0.2499659274657987</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.002262382421694316</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3643451749533558</v>
+        <v>-0.3520851400175448</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01134620269573578</v>
+        <v>-0.01311225214983515</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2004189535654957</v>
+        <v>-0.1996492582151797</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.08250465161633766</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.05572567182080868</v>
+        <v>-0.04437227189886681</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1286798840739743</v>
+        <v>-0.1309622117998603</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09047686598088527</v>
+        <v>-0.08974022503211654</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1987001944591143</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3379963231431028</v>
+        <v>0.3514777969170432</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4054664244973363</v>
+        <v>-0.4085814083383904</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04003607750000387</v>
+        <v>0.03989913783645071</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3439028470127631</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6942724032112708</v>
+        <v>0.7088761526186986</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6098748436659288</v>
+        <v>-0.6126876158356932</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07976904217899713</v>
+        <v>0.08039235375103221</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5122370626316001</v>
       </c>
       <c r="E17" t="n">
-        <v>1.18759832817109</v>
+        <v>1.20284585139913</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7214633552514198</v>
+        <v>-0.726144488118168</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1417759514435164</v>
+        <v>0.1415744769959899</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6899662651276187</v>
       </c>
       <c r="E18" t="n">
-        <v>1.54093571453979</v>
+        <v>1.554870505820664</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9152833477910226</v>
+        <v>-0.9204138631169022</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1938791323968118</v>
+        <v>0.1944394832039948</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8665902259955318</v>
       </c>
       <c r="E19" t="n">
-        <v>1.907107652823575</v>
+        <v>1.91991702043272</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.021302192715791</v>
+        <v>-1.027814696830173</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2585414119189653</v>
+        <v>0.2588389015328912</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.037655642603895</v>
       </c>
       <c r="E20" t="n">
-        <v>2.219626001319584</v>
+        <v>2.234196696325464</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.236622499442801</v>
+        <v>-1.243094866069589</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3282216643998255</v>
+        <v>0.3307322248983001</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.199708724508356</v>
       </c>
       <c r="E21" t="n">
-        <v>2.481116223922146</v>
+        <v>2.49454103300772</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.267489014411507</v>
+        <v>-1.276309030557715</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4543855930485608</v>
+        <v>0.4560572013553821</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.350501947721834</v>
       </c>
       <c r="E22" t="n">
-        <v>2.703079678350605</v>
+        <v>2.714949356544333</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.37720444324265</v>
+        <v>-1.387370245737571</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4543100401307384</v>
+        <v>0.4566395884302634</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.485186942773288</v>
       </c>
       <c r="E23" t="n">
-        <v>2.778427973687269</v>
+        <v>2.791837042581629</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.486502757006649</v>
+        <v>-1.497082526530471</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5530104831510193</v>
+        <v>0.5553085510681183</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.60045593844282</v>
       </c>
       <c r="E24" t="n">
-        <v>2.904985407116329</v>
+        <v>2.917009339183946</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.631687132717182</v>
+        <v>-1.640456780251508</v>
       </c>
       <c r="G24" t="n">
-        <v>0.593787022507435</v>
+        <v>0.5965384079314685</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.69790548794337</v>
       </c>
       <c r="E25" t="n">
-        <v>2.91490959767613</v>
+        <v>2.926228369177403</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.578168908573837</v>
+        <v>-1.586694583144362</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6475696818631581</v>
+        <v>0.6510750224462948</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.778222894749827</v>
       </c>
       <c r="E26" t="n">
-        <v>2.900704075106391</v>
+        <v>2.912578475357484</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.492058257495279</v>
+        <v>-1.502828483332779</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5872359549245815</v>
+        <v>0.5912197973205935</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.840373538970039</v>
       </c>
       <c r="E27" t="n">
-        <v>2.974739638495891</v>
+        <v>2.984440318340467</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.536208706838203</v>
+        <v>-1.546526402178329</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6174350857858565</v>
+        <v>0.6211135684723362</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.884848984471339</v>
       </c>
       <c r="E28" t="n">
-        <v>2.914977280498346</v>
+        <v>2.924824344121203</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.490066336297273</v>
+        <v>-1.49993701020695</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6351144685563058</v>
+        <v>0.6385001836862236</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.913222305018572</v>
       </c>
       <c r="E29" t="n">
-        <v>2.779865053145016</v>
+        <v>2.792022776837943</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.647213257329692</v>
+        <v>-1.654318379643243</v>
       </c>
       <c r="G29" t="n">
-        <v>0.605115238123436</v>
+        <v>0.608700853681759</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.928182117225733</v>
       </c>
       <c r="E30" t="n">
-        <v>2.738259005711675</v>
+        <v>2.747018422121714</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.63235058177681</v>
+        <v>-1.638767857734353</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5560357479021593</v>
+        <v>0.5601974544588783</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.932093944283674</v>
       </c>
       <c r="E31" t="n">
-        <v>2.624794263333594</v>
+        <v>2.633331743047529</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.67266121147332</v>
+        <v>-1.677402944076239</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5501016958148557</v>
+        <v>0.5533252869752795</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.923893767926173</v>
       </c>
       <c r="E32" t="n">
-        <v>2.585043984444266</v>
+        <v>2.593123424593903</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.719261621578549</v>
+        <v>-1.723044776536595</v>
       </c>
       <c r="G32" t="n">
-        <v>0.541455608781551</v>
+        <v>0.5445737406608476</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.901868856854986</v>
       </c>
       <c r="E33" t="n">
-        <v>2.409526686247148</v>
+        <v>2.417066237838178</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.71194164565494</v>
+        <v>-1.715520965136778</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5377771260950712</v>
+        <v>0.5415956964833467</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.864768715554404</v>
       </c>
       <c r="E34" t="n">
-        <v>2.235844694345466</v>
+        <v>2.244050056024807</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.702662015925311</v>
+        <v>-1.707124360134199</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4787057624917778</v>
+        <v>0.4814870542791161</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.8117756901884</v>
       </c>
       <c r="E35" t="n">
-        <v>2.082980679342108</v>
+        <v>2.09226581813866</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.744323941037459</v>
+        <v>-1.747090279643145</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4160991519420429</v>
+        <v>0.4184050899547484</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.744388432532189</v>
       </c>
       <c r="E36" t="n">
-        <v>1.932868049762782</v>
+        <v>1.941311088329439</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.609872014705515</v>
+        <v>-1.61477901931617</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4188709996146534</v>
+        <v>0.4210085175813797</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.665399797606117</v>
       </c>
       <c r="E37" t="n">
-        <v>1.732089318687909</v>
+        <v>1.741727037767633</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.595226553791372</v>
+        <v>-1.600432622035074</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3355062248932051</v>
+        <v>0.3394853452318532</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.576833195986765</v>
       </c>
       <c r="E38" t="n">
-        <v>1.614414075160348</v>
+        <v>1.624454743135125</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.49179224826378</v>
+        <v>-1.49734696174285</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2884430531663145</v>
+        <v>0.292052279011457</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.48190635945043</v>
       </c>
       <c r="E39" t="n">
-        <v>1.441289286027607</v>
+        <v>1.451852528350656</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.45279041546663</v>
+        <v>-1.459571289841194</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2745633525546851</v>
+        <v>0.2785597871036675</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.381970296268946</v>
       </c>
       <c r="E40" t="n">
-        <v>1.21042160542995</v>
+        <v>1.222601365390575</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.526989676844745</v>
+        <v>-1.532338193818925</v>
       </c>
       <c r="G40" t="n">
-        <v>0.297015161300918</v>
+        <v>0.2991810116118278</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.27655168385766</v>
       </c>
       <c r="E41" t="n">
-        <v>1.128898433080423</v>
+        <v>1.140039340420989</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.466661458973093</v>
+        <v>-1.472603381156003</v>
       </c>
       <c r="G41" t="n">
-        <v>0.197308920062126</v>
+        <v>0.1993582929580595</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.168286079010506</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9929598456884107</v>
+        <v>1.003002087682309</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.347400391180822</v>
+        <v>-1.354385888041154</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1572092089278697</v>
+        <v>0.1599055036826577</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.060051347455102</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9064171263610562</v>
+        <v>0.9159667003699875</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.284231068795222</v>
+        <v>-1.290369743368295</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1164263734949688</v>
+        <v>0.1188110124637394</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9538685585009553</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7343327638674947</v>
+        <v>0.7443561176319374</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.210057778732609</v>
+        <v>-1.217229009849255</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1012040345728699</v>
+        <v>0.1036201539240665</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8531101786439323</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5766380841808639</v>
+        <v>0.5870565167447532</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.180148267389653</v>
+        <v>-1.18638925320561</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08698119779279688</v>
+        <v>0.0886228997363135</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7597146605140254</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4048700995306838</v>
+        <v>0.4151279821442004</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.038754129723212</v>
+        <v>-1.045512967830078</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0121822351294669</v>
+        <v>0.01407578013239163</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6745129264430639</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3284939697078105</v>
+        <v>0.3374737487948309</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.061379080572789</v>
+        <v>-1.066046047267445</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02664724257389977</v>
+        <v>-0.02475841962833894</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.598279812095583</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1936493256051019</v>
+        <v>0.2026196605773945</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9328069026684631</v>
+        <v>-0.9385079999258142</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.0132177114309623</v>
+        <v>-0.01331057855911904</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5297525553329735</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1905973025288999</v>
+        <v>0.1981714825405988</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9044659013798836</v>
+        <v>-0.9100048746677407</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09539410171582861</v>
+        <v>-0.09299372255584507</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4668710340369056</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01184539503750855</v>
+        <v>0.02069925259482492</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.845318197849207</v>
+        <v>-0.8507824052288023</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.103091055218989</v>
+        <v>-0.1009629813669904</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4074490359797154</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005905046873719756</v>
+        <v>0.01282286091183628</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9402756233990349</v>
+        <v>-0.9441744687624967</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1463797290930005</v>
+        <v>-0.1438518543841916</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3483527351390143</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.04447773117999396</v>
+        <v>-0.03822100517282372</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9020245977227462</v>
+        <v>-0.9064806458551484</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.154778695124261</v>
+        <v>-0.1530976427027118</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2876415681918674</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1097696183506678</v>
+        <v>-0.1037631613837844</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8568801553047212</v>
+        <v>-0.8613676838195494</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1914313043828688</v>
+        <v>-0.1893173967029619</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2248123138727825</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2132849858630075</v>
+        <v>-0.2063844860352253</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8627252753116713</v>
+        <v>-0.867193915597044</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2425822037677772</v>
+        <v>-0.2405233867571159</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1595107098830431</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2955369290656963</v>
+        <v>-0.2881343171382191</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8434781694964065</v>
+        <v>-0.8482663356634031</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.232388855938234</v>
+        <v>-0.2322519162746808</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09283090237747395</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3278043210523603</v>
+        <v>-0.3220386890110359</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8293663010643851</v>
+        <v>-0.8342347422065682</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2357698490107878</v>
+        <v>-0.2352236643756965</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.02561503191150021</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3832617367531475</v>
+        <v>-0.3768602009868176</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.83025562186792</v>
+        <v>-0.8354184045857863</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3499964166435788</v>
+        <v>-0.348427119579642</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.04212596228530643</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4028535527559772</v>
+        <v>-0.3969336668407653</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7341798557324081</v>
+        <v>-0.7394858741903126</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3596593200292437</v>
+        <v>-0.3579892857415437</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1095532233203262</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5162411681971149</v>
+        <v>-0.5099734240560955</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7314379144231022</v>
+        <v>-0.7375372385181425</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4130815290061891</v>
+        <v>-0.4113752922786991</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1756168381024968</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5330391002596357</v>
+        <v>-0.527287634390403</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7201364571321633</v>
+        <v>-0.7255180285078904</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4153087660628295</v>
+        <v>-0.4146382339171554</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2390964217616254</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5461428094444639</v>
+        <v>-0.5418410151859492</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.7325413018271341</v>
+        <v>-0.7383651725759466</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.455801981977411</v>
+        <v>-0.4545097122788231</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2973882322195004</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6552365007226933</v>
+        <v>-0.6498187269071763</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7723482454048284</v>
+        <v>-0.7783342401231349</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4892687765345062</v>
+        <v>-0.4880473376963769</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3486738936813847</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7349306628532685</v>
+        <v>-0.7301424966862717</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.786815055148703</v>
+        <v>-0.7930702071367519</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5498921229914022</v>
+        <v>-0.547959227510445</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.392476518850771</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7636832701420682</v>
+        <v>-0.7598284973140027</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8350776294460247</v>
+        <v>-0.8400727791274725</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5423651635533423</v>
+        <v>-0.5409863228030829</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4287607782126582</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8207634995569163</v>
+        <v>-0.8157423785599671</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.848127034971168</v>
+        <v>-0.8535755021595504</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5798976495007572</v>
+        <v>-0.5782386333469063</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4581884588654686</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.849128898141876</v>
+        <v>-0.8440031048733603</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9531573958877597</v>
+        <v>-0.9581391664066764</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.664605062532675</v>
+        <v>-0.6626674449943539</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4820429137091946</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9768259214147582</v>
+        <v>-0.9710524192778273</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9172437886066026</v>
+        <v>-0.9226379521353001</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6634182521152143</v>
+        <v>-0.6620000608869224</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5015314930744612</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.025499314702739</v>
+        <v>-1.020523053250747</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.001317658942197</v>
+        <v>-1.006557568597007</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7246019493792933</v>
+        <v>-0.722176385913369</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5178916998984363</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.056977336100071</v>
+        <v>-1.050608854735289</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9664381822237342</v>
+        <v>-0.9721865000547244</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7538566687677879</v>
+        <v>-0.7514137910915293</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5314613653475048</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.208166594758366</v>
+        <v>-1.199437084711632</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9639433619164727</v>
+        <v>-0.9686795854524665</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7759716374220625</v>
+        <v>-0.7733855240057655</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5420096694991317</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.21220080576626</v>
+        <v>-1.203358753352353</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.005971246474322</v>
+        <v>-1.01091838857257</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.8057977257515894</v>
+        <v>-0.8026953340635057</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5486304102322901</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.189298040541774</v>
+        <v>-1.179683144739309</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.095467612682798</v>
+        <v>-1.099745796654493</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7685973578387689</v>
+        <v>-0.7657231989232738</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5505149548703133</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.146250978602882</v>
+        <v>-1.136350398329901</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.163761154317792</v>
+        <v>-1.166053713167966</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7584622487167137</v>
+        <v>-0.7555172589407602</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5464020231994383</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.148869359411166</v>
+        <v>-1.138451713856837</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.15686065449001</v>
+        <v>-1.158822669324711</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7656775523687561</v>
+        <v>-0.7608689239531825</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5334910585875917</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.071418961538005</v>
+        <v>-1.060427586013962</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.186990528509947</v>
+        <v>-1.190622577632349</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7804497218221631</v>
+        <v>-0.7755608184314031</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5100696740661299</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9818100529623568</v>
+        <v>-0.9708352046390878</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.269542322355244</v>
+        <v>-1.27203005957646</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7229980238946879</v>
+        <v>-0.7191495471431077</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4755862105328456</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8711612307922824</v>
+        <v>-0.8610757032725482</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.217402151952598</v>
+        <v>-1.220370752015371</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7346347472584639</v>
+        <v>-0.7294011336801391</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4303318921439904</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7807283232066333</v>
+        <v>-0.7705145131285132</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.219412174370499</v>
+        <v>-1.222346146012603</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6943996704797758</v>
+        <v>-0.6892856823546698</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3758858377211295</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6594249656044745</v>
+        <v>-0.6489467203139758</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.284552168695967</v>
+        <v>-1.287479057252026</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6711545560964072</v>
+        <v>-0.6663475016999549</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3138179762350644</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4842901540538321</v>
+        <v>-0.4720836357681453</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.199690501790162</v>
+        <v>-1.203749110094436</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6879540621780494</v>
+        <v>-0.6825850829552927</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2456438739253295</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2606047227066701</v>
+        <v>-0.2510110761623424</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.214065231415441</v>
+        <v>-1.217376180637096</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6197203332696646</v>
+        <v>-0.6149762396380644</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1738939229912801</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.09214847428770659</v>
+        <v>-0.08281139286015091</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.221974677499976</v>
+        <v>-1.226392162163907</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4863411009688869</v>
+        <v>-0.4829837181831526</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.09992934738816693</v>
       </c>
       <c r="E83" t="n">
-        <v>0.09745944308329556</v>
+        <v>0.1071491047940226</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.138007840464631</v>
+        <v>-1.142437917281531</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4445493192792324</v>
+        <v>-0.4414406315146635</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02607877127137737</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2463679480348258</v>
+        <v>0.2560670538602807</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.110805642010312</v>
+        <v>-1.116028237454788</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3524030918800475</v>
+        <v>-0.3491118178974078</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.04470655514739037</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4567198634054497</v>
+        <v>0.4642657110729653</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.0898074399226</v>
+        <v>-1.094239877768183</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2767698990824282</v>
+        <v>-0.2748401516397135</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1086640486638945</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6147797155282222</v>
+        <v>0.6221445509967881</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9815896902853747</v>
+        <v>-0.986171659947481</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2185894303017908</v>
+        <v>-0.2161780330079582</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1621945465565602</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8415502243531336</v>
+        <v>0.8479486120812209</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9351309419010636</v>
+        <v>-0.9387850272911631</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1608481128559964</v>
+        <v>-0.1583107940324597</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2031687497897704</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9495830267436063</v>
+        <v>0.955658740551827</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7605619902245289</v>
+        <v>-0.7645505546779048</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.09711922667277416</v>
+        <v>-0.09610241032041392</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2309710029684397</v>
       </c>
       <c r="E89" t="n">
-        <v>1.194546048572511</v>
+        <v>1.200281774250531</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6031648001518239</v>
+        <v>-0.60672995346157</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0263814616227204</v>
+        <v>0.02649793903769665</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2454116329947337</v>
       </c>
       <c r="E90" t="n">
-        <v>1.365130370843473</v>
+        <v>1.370247507006822</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5301192947896229</v>
+        <v>-0.5343880346465905</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04757877712927677</v>
+        <v>0.04686889450557016</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2460328949266487</v>
       </c>
       <c r="E91" t="n">
-        <v>1.446727522091701</v>
+        <v>1.451649479884008</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3120672778775961</v>
+        <v>-0.3158543678834456</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07750560268256675</v>
+        <v>0.07702395283144874</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2323450577261398</v>
       </c>
       <c r="E92" t="n">
-        <v>1.58675226312261</v>
+        <v>1.590262325763111</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2222348585867232</v>
+        <v>-0.2245203343508518</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09047709426120572</v>
+        <v>0.08996081598941909</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2043435251471682</v>
       </c>
       <c r="E93" t="n">
-        <v>1.59805529443267</v>
+        <v>1.601821922189943</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01648222708853993</v>
+        <v>-0.01949489968670944</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1171236639657051</v>
+        <v>0.1165050744510339</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1641741244397139</v>
       </c>
       <c r="E94" t="n">
-        <v>1.547760661449749</v>
+        <v>1.550957494285111</v>
       </c>
       <c r="F94" t="n">
-        <v>0.141313189821854</v>
+        <v>0.1390938228608201</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1310757694569143</v>
+        <v>0.1298732188482406</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1155289861214401</v>
       </c>
       <c r="E95" t="n">
-        <v>1.541096264490162</v>
+        <v>1.543402202502868</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1952642692235564</v>
+        <v>0.1938287637849302</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1425424987555899</v>
+        <v>0.1412518030761233</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06367477147953121</v>
       </c>
       <c r="E96" t="n">
-        <v>1.510237619617062</v>
+        <v>1.511169438936872</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2857876829086802</v>
+        <v>0.2842278299594713</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05192306990406666</v>
+        <v>0.05172946555214668</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.01429015679635586</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352868761888541</v>
+        <v>1.352700341842562</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3020929469862341</v>
+        <v>0.3008604900142556</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03141360075351871</v>
+        <v>0.03082806564039485</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.03069166356245003</v>
       </c>
       <c r="E98" t="n">
-        <v>1.290162988134164</v>
+        <v>1.289331906038117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2556546608504999</v>
+        <v>0.2538193545550633</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02794918466753589</v>
+        <v>0.02709291826554831</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06962459531970891</v>
       </c>
       <c r="E99" t="n">
-        <v>1.186200599191375</v>
+        <v>1.185402571496875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2285295893331251</v>
+        <v>0.2276056401089216</v>
       </c>
       <c r="G99" t="n">
-        <v>0.06101775238694204</v>
+        <v>0.06006861885679772</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1040078916204058</v>
       </c>
       <c r="E100" t="n">
-        <v>1.069768830769642</v>
+        <v>1.068893676138198</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2254334937215267</v>
+        <v>0.2237996618736166</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02462170824510623</v>
+        <v>0.02354350514701526</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1318989466163758</v>
       </c>
       <c r="E101" t="n">
-        <v>0.90835789193762</v>
+        <v>0.9075819005108188</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1916408772063222</v>
+        <v>0.1910254357298936</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01475867615071567</v>
+        <v>-0.01548587298475659</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1591881106482705</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7386613164510716</v>
+        <v>0.7382363312883203</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1550779870376285</v>
+        <v>0.1542925514960995</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03812813804466698</v>
+        <v>-0.03897968238929066</v>
       </c>
     </row>
   </sheetData>
